--- a/src/test/resources/TestData/Vickshumdifier/Vickstestdata.xlsx
+++ b/src/test/resources/TestData/Vickshumdifier/Vickstestdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pamsvc_hpolsani\Downloads\HoT-digital-master\HoT-digital-master\src\test\resources\TestData\Vickshumdifier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pamsvc_hpolsani\Desktop\Automation code\HoT-digital\src\test\resources\TestData\Vickshumdifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6149A9-5411-4A73-9BCE-BE117147111E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E046366C-6DD4-4C69-BC9D-B9D577E43F82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20580" windowHeight="9480" xr2:uid="{C6B3A52A-DE6E-47D5-81E2-758855CBD99D}"/>
   </bookViews>
@@ -147,9 +147,6 @@
     <t>Visa</t>
   </si>
   <si>
-    <t>may</t>
-  </si>
-  <si>
     <t>Product Name</t>
   </si>
   <si>
@@ -157,6 +154,9 @@
   </si>
   <si>
     <t>HUMIDIFIERS</t>
+  </si>
+  <si>
+    <t>MAY</t>
   </si>
 </sst>
 </file>
@@ -535,7 +535,7 @@
   <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,7 +598,7 @@
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>17</v>
@@ -687,7 +687,7 @@
         <v>2022</v>
       </c>
       <c r="P6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q6">
         <v>123</v>
@@ -710,10 +710,10 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">

--- a/src/test/resources/TestData/Vickshumdifier/Vickstestdata.xlsx
+++ b/src/test/resources/TestData/Vickshumdifier/Vickstestdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pamsvc_hpolsani\Desktop\Automation code\HoT-digital\src\test\resources\TestData\Vickshumdifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E046366C-6DD4-4C69-BC9D-B9D577E43F82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC7644C-B7DB-476B-A0EB-DC65501F8B56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20580" windowHeight="9480" xr2:uid="{C6B3A52A-DE6E-47D5-81E2-758855CBD99D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>DataSet</t>
   </si>
@@ -117,9 +117,6 @@
     <t>PaypalDetails</t>
   </si>
   <si>
-    <t>Forgetpassoword</t>
-  </si>
-  <si>
     <t>GoodTipsBlog</t>
   </si>
   <si>
@@ -144,19 +141,34 @@
     <t>2 Dream Valley</t>
   </si>
   <si>
-    <t>Visa</t>
-  </si>
-  <si>
     <t>Product Name</t>
   </si>
   <si>
     <t>ProductName</t>
   </si>
   <si>
-    <t>HUMIDIFIERS</t>
-  </si>
-  <si>
     <t>MAY</t>
+  </si>
+  <si>
+    <t>VISA</t>
+  </si>
+  <si>
+    <t>AddNewAddress</t>
+  </si>
+  <si>
+    <t>2 Dream Valley Rd</t>
+  </si>
+  <si>
+    <t>Sylva</t>
+  </si>
+  <si>
+    <t>9898989899</t>
+  </si>
+  <si>
+    <t>Vicks Warm  Mist Humidifier</t>
+  </si>
+  <si>
+    <t>4112344112344113</t>
   </si>
 </sst>
 </file>
@@ -166,7 +178,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +193,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -210,13 +228,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -532,17 +552,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5E3820-F945-4DCE-AC9F-8614B94A220C}">
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:V15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="4"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -598,7 +623,7 @@
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>17</v>
@@ -618,19 +643,19 @@
         <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -639,28 +664,28 @@
       </c>
       <c r="B3" s="3"/>
       <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="K3" s="4">
         <v>12345</v>
       </c>
-      <c r="L3" s="5">
-        <v>9898989899</v>
+      <c r="L3" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -673,51 +698,77 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7">
+        <v>2022</v>
+      </c>
+      <c r="P7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="M6" t="s">
-        <v>36</v>
-      </c>
-      <c r="N6">
-        <v>5111005111051120</v>
-      </c>
-      <c r="O6">
-        <v>2022</v>
-      </c>
-      <c r="P6" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q6">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R10" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>39</v>
+      </c>
+      <c r="H11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11">
+        <v>28779</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="P13" s="4"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -727,5 +778,6 @@
     <hyperlink ref="F3" r:id="rId4" xr:uid="{277B6C72-572D-48D6-BA5F-076E4827008F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>